--- a/public/downloads/Template Files/Tax Summary report result.xlsx
+++ b/public/downloads/Template Files/Tax Summary report result.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B5E404-BF94-4FD1-BC4F-8C23D0E1985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tax Summary report result" sheetId="1" r:id="rId1"/>
+    <sheet name="Tax Summary Report Result" sheetId="1" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Raw Data'!$A$1:$J$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,15 +24,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - TTaxSummaryReport?IgnoreDates=false&amp;ReportType=Summary&amp;DateFrom=%222022-12-31%22" description="Connection to the 'TTaxSummaryReport?IgnoreDates=false&amp;ReportType=Summary&amp;DateFrom=%222022-12-31%22' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - TTaxSummaryReport?IgnoreDates=false&amp;ReportType=Summary&amp;DateFrom=%222022-12-31%22" description="Connection to the 'TTaxSummaryReport?IgnoreDates=false&amp;ReportType=Summary&amp;DateFrom=%222022-12-31%22' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TTaxSummaryReport?IgnoreDates=false&amp;ReportType=Summary&amp;DateFrom=%222022-12-31%22&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TTaxSummaryReport?IgnoreDates=false&amp;ReportType=Summary&amp;DateFrom=%222022-12-31%22]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Tax Code</t>
   </si>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -340,7 +341,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="22">
     <queryTableFields count="10">
       <queryTableField id="12" name="T.ID" tableColumnId="13"/>
@@ -359,21 +360,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22" displayName="TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22" ref="A1:J6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22" displayName="TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22" ref="A1:J6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="13" uniqueName="13" name="T.ID" queryTableFieldId="12" dataDxfId="9"/>
-    <tableColumn id="14" uniqueName="14" name="T.TaxCode" queryTableFieldId="13" dataDxfId="8"/>
-    <tableColumn id="15" uniqueName="15" name="T.TaxRate" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="16" uniqueName="16" name="T.INPUT_AmountEx" queryTableFieldId="15" dataDxfId="6"/>
-    <tableColumn id="17" uniqueName="17" name="T.INPUT_AmountInc" queryTableFieldId="16" dataDxfId="5"/>
-    <tableColumn id="18" uniqueName="18" name="T.OUTPUT_AmountEx" queryTableFieldId="17" dataDxfId="4"/>
-    <tableColumn id="19" uniqueName="19" name="T.OUTPUT_AmountInc" queryTableFieldId="18" dataDxfId="3"/>
-    <tableColumn id="20" uniqueName="20" name="T.TotalNet" queryTableFieldId="19" dataDxfId="2"/>
-    <tableColumn id="21" uniqueName="21" name="T.TotalTax" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="22" uniqueName="22" name="T.TotalTax1" queryTableFieldId="21" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="T.ID" queryTableFieldId="12" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="T.TaxCode" queryTableFieldId="13" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="T.TaxRate" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="T.INPUT_AmountEx" queryTableFieldId="15" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="T.INPUT_AmountInc" queryTableFieldId="16" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="T.OUTPUT_AmountEx" queryTableFieldId="17" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="T.OUTPUT_AmountInc" queryTableFieldId="18" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="T.TotalNet" queryTableFieldId="19" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="T.TotalTax" queryTableFieldId="20" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="T.TotalTax1" queryTableFieldId="21" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -639,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +657,7 @@
     <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,115 +677,147 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxCode]]</f>
+        <v>CAG</v>
+      </c>
+      <c r="B2" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountEx]]</f>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.OUTPUT_AmountEx]]</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountInc]]</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxRate]]</f>
         <v>0.1</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="F2" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TotalTax]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxCode]]</f>
+        <v>FRE</v>
+      </c>
+      <c r="B3" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountEx]]</f>
+        <v>0.11</v>
       </c>
       <c r="C3" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.OUTPUT_AmountEx]]</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountInc]]</f>
         <v>0.11</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="E3" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxRate]]</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TotalTax]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxCode]]</f>
+        <v>GST</v>
+      </c>
+      <c r="B4" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountEx]]</f>
+        <v>14.1</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1</v>
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.OUTPUT_AmountEx]]</f>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountInc]]</f>
         <v>15.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxRate]]</f>
         <v>0.1</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="F4" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TotalTax]]</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxCode]]</f>
+        <v>NCG</v>
+      </c>
+      <c r="B5" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountEx]]</f>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.OUTPUT_AmountEx]]</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountInc]]</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxRate]]</f>
         <v>0.1</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="F5" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TotalTax]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxCode]]</f>
+        <v>WC</v>
+      </c>
+      <c r="B6" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountEx]]</f>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.OUTPUT_AmountEx]]</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.INPUT_AmountInc]]</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TaxRate]]</f>
         <v>0.41899999999999998</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <f>TTaxSummaryReport_IgnoreDates_false_ReportType_Summary_DateFrom__222022_12_31_22[[#This Row],[T.TotalTax]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1">
+        <f>SUM(D2:D6)</f>
         <v>15.61</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <f>SUM(F2:F6)</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -793,11 +826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
